--- a/biology/Médecine/Jacques_Gibelin/Jacques_Gibelin.xlsx
+++ b/biology/Médecine/Jacques_Gibelin/Jacques_Gibelin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Gibelin, né le 16 septembre 1744 à Aix-en-Provence, mort le 4 février 1828, est un médecin, traducteur et bibliothécaire français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frère puiné du peintre d'histoire Esprit Antoine Gibelin, Jacques se destina de bonne heure à la médecine. Toutes les sciences connexes suscitèrent également son intérêt. Dès son diplôme de docteur obtenu à Aix, il monta dans la capitale pour y élargir le cercle de ses connaissances dans la carrière des sciences, comme Berthollet et Broussonnet, et plus tard, Bosc.
 Il alla ensuite à Londres, où il fut reçu membre de la Société médicale. Ayant remarqué l'importance de quelques ouvrages anglais, pour les progrès de la physique et de la médecine, il conçut alors le projet de les traduire en français. Cette idée le ramena à Paris en 1 774, et, dès l'année 1775, il commença à publier ses traductions, dont la première fut le Traité sur différentes espèces d'air, en neuf volumes in-12 de Priestley. Ses travaux en ce genre se continuèrent jusqu'à l'année 1791, où il publia les deux derniers volumes de son Abrégé des Transactions philosophiques de la Société royale de Londres, concernant la botanique et la physique végétale. Dans l'intervalle, il fit paraitre les Expériences et observations sur différentes branches de la physique, également de Priestley, 1782, 4 vol. in-12 ; le Traité sur le venin de la vipère, sur les poisons américains, etc., de Fontana, imprimé en français à Florence, 1791, 2 vol. in-4°, traduit par Gibelin sur le manuscrit italien de l'auteur, son ami particulier ; Observations sur les maladies vénériennes, par Franz Xaver Schwediauer, Paris, Cuchet, 1785 ; in-8° ; Éléments de minéralogie, de Richard Kirwan, Paris, Cuchet, 1785, in-8° ; Abrégé des transactions philosophiques de la Société royale de Londres ; histoire naturelle, 1784, 2 vol. in-8° ; la moitié du quatrième volume et les trois suivants de l'Histoire des progrès et de la chute de la république romaine, par Adam Ferguson, Paris, Nyon l'ainé, 1784-1791, 7 vol in-8° et in-12 ; Mémoires de la vie privée de Benjamin Franklin, première partie, finissant à l'année 1757, traduits sur le manuscrit original de l'auteur.
